--- a/UnityExcel2CsharpDemo/DataTable/TestDataTable.xlsx
+++ b/UnityExcel2CsharpDemo/DataTable/TestDataTable.xlsx
@@ -12,17 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17850"/>
   </bookViews>
   <sheets>
-    <sheet name="BossConfig" sheetId="4" r:id="rId1"/>
+    <sheet name="TestDataTable" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossConfig!$C$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataTable!$E$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>#策划备注</t>
   </si>
@@ -93,51 +93,83 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>布尔集合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型集合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListFloat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListBool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;bool&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[false, true, false, true]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>布尔集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点型集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListFloat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListBool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;bool&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>boo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[false, true, false, true]</t>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloWorld</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串集合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListString</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Hello","World"]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -548,30 +580,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="5" width="21.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -579,25 +613,31 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,25 +645,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,48 +677,60 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/UnityExcel2CsharpDemo/DataTable/TestDataTable.xlsx
+++ b/UnityExcel2CsharpDemo/DataTable/TestDataTable.xlsx
@@ -15,14 +15,14 @@
     <sheet name="TestDataTable" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataTable!$E$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataTable!$D$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>#策划备注</t>
   </si>
@@ -57,34 +57,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>整形集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListInt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,11,111,1111]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IntInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;float&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.1, 1.11, 1.111, 1.1111]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BoolInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -93,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>布尔集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>浮点型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -105,71 +77,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloWorld</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点型集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListFloat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListBool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;bool&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[false, true, false, true]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelloWorld</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListString</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;string&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>["Hello","World"]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -580,32 +516,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="5" width="21.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="21.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -613,31 +547,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,31 +567,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,31 +587,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -709,28 +607,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
